--- a/results/scale/a_grouped_wide_with_scale.xlsx
+++ b/results/scale/a_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>4.139425600036813</v>
+      </c>
       <c r="C2" t="n">
-        <v>4.139425600036813</v>
+        <v>4.620016688962867</v>
       </c>
       <c r="D2" t="n">
-        <v>4.620016688962867</v>
+        <v>3.435992788253527</v>
       </c>
       <c r="E2" t="n">
-        <v>3.435992788253527</v>
+        <v>2.428417424961262</v>
       </c>
       <c r="F2" t="n">
-        <v>2.428417424961262</v>
+        <v>5.45216245036756</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45216245036756</v>
+        <v>3.265515138931203</v>
       </c>
       <c r="H2" t="n">
-        <v>3.265515138931203</v>
+        <v>2.167290194638977</v>
       </c>
       <c r="I2" t="n">
-        <v>2.167290194638977</v>
+        <v>3.309999929120452</v>
       </c>
       <c r="J2" t="n">
-        <v>3.309999929120452</v>
+        <v>-0.7034328117832866</v>
       </c>
       <c r="K2" t="n">
-        <v>1.007575363292264</v>
+        <v>2.191599264001605</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4805910889260536</v>
+        <v>-3.284872255728583</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.142709734481475</v>
+        <v>-0.04448479018924889</v>
       </c>
       <c r="N2" t="n">
-        <v>2.186647311436356</v>
+        <v>-3.240387465539333</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.240387465539333</v>
+        <v>-2.89503207578489</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.89503207578489</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-1.841190593699514</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>-6.135419541324225</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>3.286942072501359</v>
+      </c>
       <c r="C3" t="n">
-        <v>3.286942072501359</v>
+        <v>3.239999902819</v>
       </c>
       <c r="D3" t="n">
-        <v>3.239999902819</v>
+        <v>2.16000000011341</v>
       </c>
       <c r="E3" t="n">
-        <v>2.16000000011341</v>
+        <v>3.126481688189676</v>
       </c>
       <c r="F3" t="n">
-        <v>3.126481688189676</v>
+        <v>1.632984231792893</v>
       </c>
       <c r="G3" t="n">
-        <v>1.632984231792893</v>
+        <v>2.549644167383097</v>
       </c>
       <c r="H3" t="n">
-        <v>2.549644167383097</v>
+        <v>3.688928097737271</v>
       </c>
       <c r="I3" t="n">
-        <v>3.688928097737271</v>
+        <v>3.298335468632356</v>
       </c>
       <c r="J3" t="n">
-        <v>3.298335468632356</v>
+        <v>-1.126942072387949</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.9664816880762657</v>
+        <v>0.1135182146293245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04694216968235887</v>
+        <v>2.055943865944379</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3905926291049147</v>
+        <v>-0.7486913012492589</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9166599355902048</v>
+        <v>2.804635167193637</v>
       </c>
       <c r="O3" t="n">
-        <v>2.804635167193637</v>
+        <v>-1.240460287017273</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.240460287017273</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2938287069364949</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>1.564174880176364</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>2.755273240469772</v>
+      </c>
       <c r="C4" t="n">
-        <v>2.755273240469772</v>
+        <v>2.889467642548863</v>
       </c>
       <c r="D4" t="n">
-        <v>2.889467642548863</v>
+        <v>3.789359053270016</v>
       </c>
       <c r="E4" t="n">
-        <v>3.789359053270016</v>
+        <v>5.527426896543565</v>
       </c>
       <c r="F4" t="n">
-        <v>5.527426896543565</v>
+        <v>3.104494817139065</v>
       </c>
       <c r="G4" t="n">
-        <v>3.104494817139065</v>
+        <v>3.52999986841357</v>
       </c>
       <c r="H4" t="n">
-        <v>3.52999986841357</v>
+        <v>3.712490360528632</v>
       </c>
       <c r="I4" t="n">
-        <v>3.712490360528632</v>
+        <v>4.76531780189644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.76531780189644</v>
+        <v>1.034085812800244</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.738067843273549</v>
+        <v>-2.637959253994702</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1341944020790913</v>
+        <v>0.607995543389567</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.052827441367808</v>
+        <v>-1.23531793348287</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.4255050512745049</v>
+        <v>1.843313476872437</v>
       </c>
       <c r="O4" t="n">
-        <v>1.843313476872437</v>
+        <v>3.672045066794947</v>
       </c>
       <c r="P4" t="n">
-        <v>3.672045066794947</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-2.231195831287761</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>5.515358543667382</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>3.169999583184892</v>
+      </c>
       <c r="C5" t="n">
-        <v>3.169999583184892</v>
+        <v>2.069999813771098</v>
       </c>
       <c r="D5" t="n">
-        <v>2.069999813771098</v>
+        <v>2.424174187676345</v>
       </c>
       <c r="E5" t="n">
-        <v>2.424174187676345</v>
+        <v>3.033790100537497</v>
       </c>
       <c r="F5" t="n">
-        <v>3.033790100537497</v>
+        <v>2.969999651616746</v>
       </c>
       <c r="G5" t="n">
-        <v>2.969999651616746</v>
+        <v>2.312251990521378</v>
       </c>
       <c r="H5" t="n">
-        <v>2.312251990521378</v>
+        <v>1.980310328795894</v>
       </c>
       <c r="I5" t="n">
-        <v>1.980310328795894</v>
+        <v>2.125554341950848</v>
       </c>
       <c r="J5" t="n">
-        <v>2.125554341950848</v>
+        <v>-0.7458253955085468</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.6096159128611514</v>
+        <v>-0.9637902867663986</v>
       </c>
       <c r="L5" t="n">
-        <v>1.099999769413794</v>
+        <v>-0.9896893228208516</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1452440131549535</v>
+        <v>0.1866976485705303</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6577476610953679</v>
+        <v>-1.176386971391382</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.176386971391382</v>
+        <v>0.2179648912578518</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2179648912578518</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-2.512607356525267</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>-0.9584220801335301</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>3.543674164486068</v>
+      </c>
       <c r="C6" t="n">
-        <v>3.543674164486068</v>
+        <v>3.690027264854939</v>
       </c>
       <c r="D6" t="n">
-        <v>3.690027264854939</v>
+        <v>2.21898411796523</v>
       </c>
       <c r="E6" t="n">
-        <v>2.21898411796523</v>
+        <v>2.702078691137989</v>
       </c>
       <c r="F6" t="n">
-        <v>2.702078691137989</v>
+        <v>3.790870254253832</v>
       </c>
       <c r="G6" t="n">
-        <v>3.790870254253832</v>
+        <v>5.415440471044336</v>
       </c>
       <c r="H6" t="n">
-        <v>5.415440471044336</v>
+        <v>3.779763653326783</v>
       </c>
       <c r="I6" t="n">
-        <v>3.779763653326783</v>
+        <v>2.950537351637049</v>
       </c>
       <c r="J6" t="n">
-        <v>2.950537351637049</v>
+        <v>-1.324690046520838</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4830945731727585</v>
+        <v>0.9879485737169498</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1463531003688705</v>
+        <v>-0.01110660092704929</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8292263016897339</v>
+        <v>2.464903119407287</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.624570216790504</v>
+        <v>-2.476009720334337</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.476009720334337</v>
+        <v>-2.312638620237788</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.312638620237788</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.11705504567635</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>-4.788648340572124</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>5.762195310932111</v>
+      </c>
       <c r="C7" t="n">
-        <v>5.762195310932111</v>
+        <v>5.984407935790561</v>
       </c>
       <c r="D7" t="n">
-        <v>5.984407935790561</v>
+        <v>3.433647544715473</v>
       </c>
       <c r="E7" t="n">
-        <v>3.433647544715473</v>
+        <v>4.824248916580677</v>
       </c>
       <c r="F7" t="n">
-        <v>4.824248916580677</v>
+        <v>5.998633750419427</v>
       </c>
       <c r="G7" t="n">
-        <v>5.998633750419427</v>
+        <v>4.759998096146752</v>
       </c>
       <c r="H7" t="n">
-        <v>4.759998096146752</v>
+        <v>5.804759559892846</v>
       </c>
       <c r="I7" t="n">
-        <v>5.804759559892846</v>
+        <v>5.662501474533277</v>
       </c>
       <c r="J7" t="n">
-        <v>5.662501474533277</v>
+        <v>-2.328547766216638</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.390601371865204</v>
+        <v>1.160159019209884</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2222126248584493</v>
+        <v>-0.1938741905265813</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1422580853595683</v>
+        <v>-0.9025033783865251</v>
       </c>
       <c r="N7" t="n">
-        <v>1.238635654272675</v>
+        <v>0.7086291878599447</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7086291878599447</v>
+        <v>-3.488706785426521</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.488706785426521</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-2.264766315919861</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>-2.780077597566578</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>1.617189392897002</v>
+      </c>
       <c r="C8" t="n">
-        <v>1.617189392897002</v>
+        <v>5.005617649786501</v>
       </c>
       <c r="D8" t="n">
-        <v>5.005617649786501</v>
+        <v>3.144942541435344</v>
       </c>
       <c r="E8" t="n">
-        <v>3.144942541435344</v>
+        <v>5.117901155518431</v>
       </c>
       <c r="F8" t="n">
-        <v>5.117901155518431</v>
+        <v>5.969483135124763</v>
       </c>
       <c r="G8" t="n">
-        <v>5.969483135124763</v>
+        <v>4.957124044028991</v>
       </c>
       <c r="H8" t="n">
-        <v>4.957124044028991</v>
+        <v>3.402425681630848</v>
       </c>
       <c r="I8" t="n">
-        <v>3.402425681630848</v>
+        <v>3.820683260096528</v>
       </c>
       <c r="J8" t="n">
-        <v>3.820683260096528</v>
+        <v>1.527753148538342</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.972958614083087</v>
+        <v>-0.1122835057319298</v>
       </c>
       <c r="L8" t="n">
-        <v>-3.388428256889499</v>
+        <v>-2.567057453493915</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4182575784656803</v>
+        <v>1.136440783932463</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012359091095772</v>
+        <v>-3.70349823742638</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.70349823742638</v>
+        <v>1.640036654270272</v>
       </c>
       <c r="P8" t="n">
-        <v>1.640036654270272</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.01514702675503976</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>-2.063461583156107</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>5.61400064276257</v>
+      </c>
       <c r="C9" t="n">
-        <v>5.61400064276257</v>
+        <v>2.994081965195794</v>
       </c>
       <c r="D9" t="n">
-        <v>2.994081965195794</v>
+        <v>5.128765379201909</v>
       </c>
       <c r="E9" t="n">
-        <v>5.128765379201909</v>
+        <v>4.790964283660258</v>
       </c>
       <c r="F9" t="n">
-        <v>4.790964283660258</v>
+        <v>3.115536889029632</v>
       </c>
       <c r="G9" t="n">
-        <v>3.115536889029632</v>
+        <v>4.733183351883739</v>
       </c>
       <c r="H9" t="n">
-        <v>4.733183351883739</v>
+        <v>2.799782413677426</v>
       </c>
       <c r="I9" t="n">
-        <v>2.799782413677426</v>
+        <v>4.809999983365881</v>
       </c>
       <c r="J9" t="n">
-        <v>4.809999983365881</v>
+        <v>-0.4852352635606616</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3378010955416508</v>
+        <v>-1.796882318464464</v>
       </c>
       <c r="L9" t="n">
-        <v>2.619918677566776</v>
+        <v>-0.3157544753522066</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.010217569688455</v>
+        <v>-0.07681663148214124</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.617646462854107</v>
+        <v>-0.2389378438700653</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2389378438700653</v>
+        <v>1.311647054903803</v>
       </c>
       <c r="P9" t="n">
-        <v>1.311647054903803</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-2.674688688859473</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>1.072709211033737</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>3.957332617750661</v>
+      </c>
       <c r="C10" t="n">
-        <v>3.957332617750661</v>
+        <v>4.956940409376518</v>
       </c>
       <c r="D10" t="n">
-        <v>4.956940409376518</v>
+        <v>5.107413649523318</v>
       </c>
       <c r="E10" t="n">
-        <v>5.107413649523318</v>
+        <v>4.896864178869698</v>
       </c>
       <c r="F10" t="n">
-        <v>4.896864178869698</v>
+        <v>3.509999969451257</v>
       </c>
       <c r="G10" t="n">
-        <v>3.509999969451257</v>
+        <v>4.429999945624055</v>
       </c>
       <c r="H10" t="n">
-        <v>4.429999945624055</v>
+        <v>5.67595069422279</v>
       </c>
       <c r="I10" t="n">
-        <v>5.67595069422279</v>
+        <v>3.961158468952385</v>
       </c>
       <c r="J10" t="n">
-        <v>3.961158468952385</v>
+        <v>1.150081031772657</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2105494706536204</v>
+        <v>0.06007623050682032</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.999607791625857</v>
+        <v>2.165950724771533</v>
       </c>
       <c r="M10" t="n">
-        <v>1.714792225270405</v>
+        <v>0.4688414766716704</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.9199999761727979</v>
+        <v>1.697109248099864</v>
       </c>
       <c r="O10" t="n">
-        <v>1.697109248099864</v>
+        <v>1.090004801265836</v>
       </c>
       <c r="P10" t="n">
-        <v>1.090004801265836</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.84494946372268</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>2.787114049365699</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>2.800000072201319</v>
+      </c>
       <c r="C11" t="n">
-        <v>2.800000072201319</v>
+        <v>4.969999773687491</v>
       </c>
       <c r="D11" t="n">
-        <v>4.969999773687491</v>
+        <v>5.479999987116045</v>
       </c>
       <c r="E11" t="n">
-        <v>5.479999987116045</v>
+        <v>4.839652031079859</v>
       </c>
       <c r="F11" t="n">
-        <v>4.839652031079859</v>
+        <v>2.449754965674896</v>
       </c>
       <c r="G11" t="n">
-        <v>2.449754965674896</v>
+        <v>4.650000000093786</v>
       </c>
       <c r="H11" t="n">
-        <v>4.650000000093786</v>
+        <v>4.438542762646926</v>
       </c>
       <c r="I11" t="n">
-        <v>4.438542762646926</v>
+        <v>3.051494499079819</v>
       </c>
       <c r="J11" t="n">
-        <v>3.051494499079819</v>
+        <v>2.679999914914727</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6403479560361864</v>
+        <v>0.1303477426076318</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.169999701486172</v>
+        <v>1.98878779697203</v>
       </c>
       <c r="M11" t="n">
-        <v>1.387048263567107</v>
+        <v>1.598505501013967</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.200245034418889</v>
+        <v>0.3902822959580634</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3902822959580634</v>
+        <v>2.549652172307094</v>
       </c>
       <c r="P11" t="n">
-        <v>2.549652172307094</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6.397640955508354</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>2.939934468265158</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>4.649309155954212</v>
+      </c>
       <c r="C12" t="n">
-        <v>4.649309155954212</v>
+        <v>2.502582577093979</v>
       </c>
       <c r="D12" t="n">
-        <v>2.502582577093979</v>
+        <v>4.988393359494764</v>
       </c>
       <c r="E12" t="n">
-        <v>4.988393359494764</v>
+        <v>2.731750171170388</v>
       </c>
       <c r="F12" t="n">
-        <v>2.731750171170388</v>
+        <v>4.71880161219442</v>
       </c>
       <c r="G12" t="n">
-        <v>4.71880161219442</v>
+        <v>3.532615842915169</v>
       </c>
       <c r="H12" t="n">
-        <v>3.532615842915169</v>
+        <v>2.895070059761484</v>
       </c>
       <c r="I12" t="n">
-        <v>2.895070059761484</v>
+        <v>4.539999673693242</v>
       </c>
       <c r="J12" t="n">
-        <v>4.539999673693242</v>
+        <v>0.3390842035405521</v>
       </c>
       <c r="K12" t="n">
-        <v>2.256643188324376</v>
+        <v>-0.2291675940764097</v>
       </c>
       <c r="L12" t="n">
-        <v>2.146726578860233</v>
+        <v>-1.823731552432936</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.644929613931758</v>
+        <v>-1.007383830778072</v>
       </c>
       <c r="N12" t="n">
-        <v>1.186185769279251</v>
+        <v>-0.8163477216548642</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.8163477216548642</v>
+        <v>0.5682517976169628</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5682517976169628</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-2.721198773746866</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>-0.2480959240379015</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>2.635247652176326</v>
+      </c>
       <c r="C13" t="n">
-        <v>2.635247652176326</v>
+        <v>2.764693140557948</v>
       </c>
       <c r="D13" t="n">
-        <v>2.764693140557948</v>
+        <v>5.764534936722225</v>
       </c>
       <c r="E13" t="n">
-        <v>5.764534936722225</v>
+        <v>2.907536835797816</v>
       </c>
       <c r="F13" t="n">
-        <v>2.907536835797816</v>
+        <v>2.502569857205361</v>
       </c>
       <c r="G13" t="n">
-        <v>2.502569857205361</v>
+        <v>5.485318159244226</v>
       </c>
       <c r="H13" t="n">
-        <v>5.485318159244226</v>
+        <v>3.351003214951619</v>
       </c>
       <c r="I13" t="n">
-        <v>3.351003214951619</v>
+        <v>2.923583547962482</v>
       </c>
       <c r="J13" t="n">
-        <v>2.923583547962482</v>
+        <v>3.129287284545898</v>
       </c>
       <c r="K13" t="n">
-        <v>2.856998100924408</v>
+        <v>-0.1428436952398684</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1294454883816214</v>
+        <v>0.8484333577462579</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4274196669891372</v>
+        <v>2.561734611281744</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.982748302038865</v>
+        <v>-1.713301253535486</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.713301253535486</v>
+        <v>3.272130979785768</v>
       </c>
       <c r="P13" t="n">
-        <v>3.272130979785768</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6.396611558334031</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>1.55882972625028</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>4.819491183071487</v>
+      </c>
       <c r="C14" t="n">
-        <v>4.819491183071487</v>
+        <v>1.794657900981973</v>
       </c>
       <c r="D14" t="n">
-        <v>1.794657900981973</v>
+        <v>1.839999902253808</v>
       </c>
       <c r="E14" t="n">
-        <v>1.839999902253808</v>
+        <v>1.521023003868785</v>
       </c>
       <c r="F14" t="n">
-        <v>1.521023003868785</v>
+        <v>3.703502077986847</v>
       </c>
       <c r="G14" t="n">
-        <v>3.703502077986847</v>
+        <v>2.23704145471416</v>
       </c>
       <c r="H14" t="n">
-        <v>2.23704145471416</v>
+        <v>2.713346721990326</v>
       </c>
       <c r="I14" t="n">
-        <v>2.713346721990326</v>
+        <v>4.182756408223876</v>
       </c>
       <c r="J14" t="n">
-        <v>4.182756408223876</v>
+        <v>-2.979491280817679</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3189768983850227</v>
+        <v>0.2736348971131881</v>
       </c>
       <c r="L14" t="n">
-        <v>3.024833282089514</v>
+        <v>-0.9901553559965213</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.469409686233551</v>
+        <v>-1.945714953509716</v>
       </c>
       <c r="N14" t="n">
-        <v>1.466460623272687</v>
+        <v>0.9555595975131954</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9555595975131954</v>
+        <v>-3.253126177930867</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.253126177930867</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-5.641726693210728</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>-2.297566580417672</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>4.679391628534473</v>
+      </c>
       <c r="C15" t="n">
-        <v>4.679391628534473</v>
+        <v>4.830000637735768</v>
       </c>
       <c r="D15" t="n">
-        <v>4.830000637735768</v>
+        <v>2.759996749242923</v>
       </c>
       <c r="E15" t="n">
-        <v>2.759996749242923</v>
+        <v>3.156318230343151</v>
       </c>
       <c r="F15" t="n">
-        <v>3.156318230343151</v>
+        <v>2.855263535582649</v>
       </c>
       <c r="G15" t="n">
-        <v>2.855263535582649</v>
+        <v>5.570000097576155</v>
       </c>
       <c r="H15" t="n">
-        <v>5.570000097576155</v>
+        <v>2.782045984788597</v>
       </c>
       <c r="I15" t="n">
-        <v>2.782045984788597</v>
+        <v>5.143803467869048</v>
       </c>
       <c r="J15" t="n">
-        <v>5.143803467869048</v>
+        <v>-1.91939487929155</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.3963214811002285</v>
+        <v>1.673682407392617</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.1506090092012951</v>
+        <v>-0.07321755079405179</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.361757483080451</v>
+        <v>0.4261966297071069</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.714736561993506</v>
+        <v>-0.4994141805011587</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.4994141805011587</v>
+        <v>-3.593077286684167</v>
       </c>
       <c r="P15" t="n">
-        <v>-3.593077286684167</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.1072666070141217</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>-4.092491467185326</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>1.25577385746175</v>
+      </c>
       <c r="C16" t="n">
-        <v>1.25577385746175</v>
+        <v>1.721395581720191</v>
       </c>
       <c r="D16" t="n">
-        <v>1.721395581720191</v>
+        <v>1.877216404328904</v>
       </c>
       <c r="E16" t="n">
-        <v>1.877216404328904</v>
+        <v>4.485356705331414</v>
       </c>
       <c r="F16" t="n">
-        <v>4.485356705331414</v>
+        <v>2.27154073939378</v>
       </c>
       <c r="G16" t="n">
-        <v>2.27154073939378</v>
+        <v>3.830000001375534</v>
       </c>
       <c r="H16" t="n">
-        <v>3.830000001375534</v>
+        <v>1.543999276986607</v>
       </c>
       <c r="I16" t="n">
-        <v>1.543999276986607</v>
+        <v>5.578325114625734</v>
       </c>
       <c r="J16" t="n">
-        <v>5.578325114625734</v>
+        <v>0.6214425468671538</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.60814030100251</v>
+        <v>-2.763961123611223</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.4656217242584408</v>
+        <v>-0.7275414624071734</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.034325837639127</v>
+        <v>-1.7483251132502</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.558459261981754</v>
+        <v>1.020783650843027</v>
       </c>
       <c r="O16" t="n">
-        <v>1.020783650843027</v>
+        <v>3.385403670478377</v>
       </c>
       <c r="P16" t="n">
-        <v>3.385403670478377</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-4.618385152401443</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>4.406187321321404</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>1.337412046933459</v>
+      </c>
       <c r="C17" t="n">
-        <v>1.337412046933459</v>
+        <v>2.661562003466462</v>
       </c>
       <c r="D17" t="n">
-        <v>2.661562003466462</v>
+        <v>4.277865060877982</v>
       </c>
       <c r="E17" t="n">
-        <v>4.277865060877982</v>
+        <v>3.91808198401785</v>
       </c>
       <c r="F17" t="n">
-        <v>3.91808198401785</v>
+        <v>4.310000003106339</v>
       </c>
       <c r="G17" t="n">
-        <v>4.310000003106339</v>
+        <v>2.477163712741182</v>
       </c>
       <c r="H17" t="n">
-        <v>2.477163712741182</v>
+        <v>2.419999984092516</v>
       </c>
       <c r="I17" t="n">
-        <v>2.419999984092516</v>
+        <v>2.898931544280932</v>
       </c>
       <c r="J17" t="n">
-        <v>2.898931544280932</v>
+        <v>2.940453013944523</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3597830768601322</v>
+        <v>-1.256519980551388</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.324149956533002</v>
+        <v>-1.890000019013823</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.4789315601884159</v>
+        <v>-0.4217678315397499</v>
       </c>
       <c r="N17" t="n">
-        <v>1.832836290365157</v>
+        <v>-1.468232187474073</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.468232187474073</v>
+        <v>4.19697299449591</v>
       </c>
       <c r="P17" t="n">
-        <v>4.19697299449591</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-0.627834817160438</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>2.728740807021838</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>2.708846571268726</v>
+      </c>
       <c r="C18" t="n">
-        <v>2.708846571268726</v>
+        <v>3.436823470309709</v>
       </c>
       <c r="D18" t="n">
-        <v>3.436823470309709</v>
+        <v>2.566620489559583</v>
       </c>
       <c r="E18" t="n">
-        <v>2.566620489559583</v>
+        <v>3.074437515968073</v>
       </c>
       <c r="F18" t="n">
-        <v>3.074437515968073</v>
+        <v>4.804541709965194</v>
       </c>
       <c r="G18" t="n">
-        <v>4.804541709965194</v>
+        <v>5.168311884276172</v>
       </c>
       <c r="H18" t="n">
-        <v>5.168311884276172</v>
+        <v>3.780683955145578</v>
       </c>
       <c r="I18" t="n">
-        <v>3.780683955145578</v>
+        <v>5.299952275796094</v>
       </c>
       <c r="J18" t="n">
-        <v>5.299952275796094</v>
+        <v>-0.1422260817091434</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.5078170264084898</v>
+        <v>0.3623859543416361</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.7279768990409825</v>
+        <v>-1.023857754819616</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.519268320650516</v>
+        <v>-0.1316403915199214</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.3637701743109787</v>
+        <v>-0.8922173632996948</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.8922173632996948</v>
+        <v>-0.50461203605078</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.50461203605078</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.9353382737070448</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>-1.396829399350474</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>5.036632144070572</v>
+      </c>
       <c r="C19" t="n">
-        <v>5.036632144070572</v>
+        <v>2.776548909894057</v>
       </c>
       <c r="D19" t="n">
-        <v>2.776548909894057</v>
+        <v>5.47394009783153</v>
       </c>
       <c r="E19" t="n">
-        <v>5.47394009783153</v>
+        <v>4.580000046699969</v>
       </c>
       <c r="F19" t="n">
-        <v>4.580000046699969</v>
+        <v>5.849999995054154</v>
       </c>
       <c r="G19" t="n">
-        <v>5.849999995054154</v>
+        <v>5.942007136214709</v>
       </c>
       <c r="H19" t="n">
-        <v>5.942007136214709</v>
+        <v>3.870237630241961</v>
       </c>
       <c r="I19" t="n">
-        <v>3.870237630241961</v>
+        <v>4.692047742292001</v>
       </c>
       <c r="J19" t="n">
-        <v>4.692047742292001</v>
+        <v>0.4373079537609579</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8939400511315609</v>
+        <v>-1.803451136805912</v>
       </c>
       <c r="L19" t="n">
-        <v>2.260083234176515</v>
+        <v>-1.979762364812193</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.8218101120500396</v>
+        <v>1.249959393922708</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.09200714116055497</v>
+        <v>-3.229721758734902</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.229721758734902</v>
+        <v>2.240759090566869</v>
       </c>
       <c r="P19" t="n">
-        <v>2.240759090566869</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-2.095946153934439</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>-0.988962668168031</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>4.059862623046713</v>
+      </c>
       <c r="C20" t="n">
-        <v>4.059862623046713</v>
+        <v>3.41621729217384</v>
       </c>
       <c r="D20" t="n">
-        <v>3.41621729217384</v>
+        <v>3.969092487342004</v>
       </c>
       <c r="E20" t="n">
-        <v>3.969092487342004</v>
+        <v>3.256809114883708</v>
       </c>
       <c r="F20" t="n">
-        <v>3.256809114883708</v>
+        <v>4.65063258056804</v>
       </c>
       <c r="G20" t="n">
-        <v>4.65063258056804</v>
+        <v>5.702633362837935</v>
       </c>
       <c r="H20" t="n">
-        <v>5.702633362837935</v>
+        <v>4.909999925440517</v>
       </c>
       <c r="I20" t="n">
-        <v>4.909999925440517</v>
+        <v>4.269999962960251</v>
       </c>
       <c r="J20" t="n">
-        <v>4.269999962960251</v>
+        <v>-0.09077013570470882</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7122833724582964</v>
+        <v>0.1594081772901323</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6436453308728729</v>
+        <v>0.2593673448724774</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6399999624802657</v>
+        <v>1.432633399877684</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.052000782269896</v>
+        <v>-1.173266055005207</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.173266055005207</v>
+        <v>-0.2501783129948407</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.2501783129948407</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.760638786335585</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>-1.423444368000048</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>3.687252578131927</v>
+      </c>
       <c r="C21" t="n">
-        <v>3.687252578131927</v>
+        <v>3.73177864599124</v>
       </c>
       <c r="D21" t="n">
-        <v>3.73177864599124</v>
+        <v>2.532842656323278</v>
       </c>
       <c r="E21" t="n">
-        <v>2.532842656323278</v>
+        <v>4.823356275949124</v>
       </c>
       <c r="F21" t="n">
-        <v>4.823356275949124</v>
+        <v>5.340000005281768</v>
       </c>
       <c r="G21" t="n">
-        <v>5.340000005281768</v>
+        <v>4.109998993309144</v>
       </c>
       <c r="H21" t="n">
-        <v>4.109998993309144</v>
+        <v>2.916992131005971</v>
       </c>
       <c r="I21" t="n">
-        <v>2.916992131005971</v>
+        <v>4.391902331103416</v>
       </c>
       <c r="J21" t="n">
-        <v>4.391902331103416</v>
+        <v>-1.154409921808649</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.290513619625846</v>
+        <v>-1.091577629957885</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.04452606785931268</v>
+        <v>-2.423007874275797</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.474910200097445</v>
+        <v>-0.2819033377942715</v>
       </c>
       <c r="N21" t="n">
-        <v>1.230001011972623</v>
+        <v>-2.141104536481525</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.141104536481525</v>
+        <v>-0.06283229185076422</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.06283229185076422</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-4.950898763836602</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>-2.20393682833229</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>1.967406703133932</v>
+      </c>
       <c r="C22" t="n">
-        <v>1.967406703133932</v>
+        <v>3.180000342422939</v>
       </c>
       <c r="D22" t="n">
-        <v>3.180000342422939</v>
+        <v>3.140492893473361</v>
       </c>
       <c r="E22" t="n">
-        <v>3.140492893473361</v>
+        <v>3.107740635263931</v>
       </c>
       <c r="F22" t="n">
-        <v>3.107740635263931</v>
+        <v>5.749102565420533</v>
       </c>
       <c r="G22" t="n">
-        <v>5.749102565420533</v>
+        <v>1.650000000857957</v>
       </c>
       <c r="H22" t="n">
-        <v>1.650000000857957</v>
+        <v>5.809999937507342</v>
       </c>
       <c r="I22" t="n">
-        <v>5.809999937507342</v>
+        <v>4.036545265592328</v>
       </c>
       <c r="J22" t="n">
-        <v>4.036545265592328</v>
+        <v>1.173086190339429</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03275225820942929</v>
+        <v>0.07225970715900765</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.212593639289007</v>
+        <v>0.06089737208680912</v>
       </c>
       <c r="M22" t="n">
-        <v>1.773454671915014</v>
+        <v>-2.386545264734371</v>
       </c>
       <c r="N22" t="n">
-        <v>4.099102564562576</v>
+        <v>2.447442636821179</v>
       </c>
       <c r="O22" t="n">
-        <v>2.447442636821179</v>
+        <v>1.100826483180421</v>
       </c>
       <c r="P22" t="n">
-        <v>1.100826483180421</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-1.080301995149126</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>3.548269120001601</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>5.327957391947324</v>
+      </c>
       <c r="C23" t="n">
-        <v>5.327957391947324</v>
+        <v>5.529999589692988</v>
       </c>
       <c r="D23" t="n">
-        <v>5.529999589692988</v>
+        <v>4.826324270525551</v>
       </c>
       <c r="E23" t="n">
-        <v>4.826324270525551</v>
+        <v>5.769376742778663</v>
       </c>
       <c r="F23" t="n">
-        <v>5.769376742778663</v>
+        <v>5.232658105052923</v>
       </c>
       <c r="G23" t="n">
-        <v>5.232658105052923</v>
+        <v>3.837274529636476</v>
       </c>
       <c r="H23" t="n">
-        <v>3.837274529636476</v>
+        <v>4.574533961337995</v>
       </c>
       <c r="I23" t="n">
-        <v>4.574533961337995</v>
+        <v>2.656643880313778</v>
       </c>
       <c r="J23" t="n">
-        <v>2.656643880313778</v>
+        <v>-0.5016331214217731</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.943052472253112</v>
+        <v>-0.239377153085675</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.2020421977456639</v>
+        <v>-0.6581241437149279</v>
       </c>
       <c r="M23" t="n">
-        <v>1.917890081024217</v>
+        <v>1.180630649322698</v>
       </c>
       <c r="N23" t="n">
-        <v>1.395383575416447</v>
+        <v>-1.838754793037625</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.838754793037625</v>
+        <v>-0.2622559683360972</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.2622559683360972</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.2185037688996778</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>-2.101010761373724</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>1.64525535397612</v>
+      </c>
       <c r="C24" t="n">
-        <v>1.64525535397612</v>
+        <v>3.235381425157472</v>
       </c>
       <c r="D24" t="n">
-        <v>3.235381425157472</v>
+        <v>4.383148172075121</v>
       </c>
       <c r="E24" t="n">
-        <v>4.383148172075121</v>
+        <v>4.421392881319269</v>
       </c>
       <c r="F24" t="n">
-        <v>4.421392881319269</v>
+        <v>3.91382492244537</v>
       </c>
       <c r="G24" t="n">
-        <v>3.91382492244537</v>
+        <v>5.363891521756294</v>
       </c>
       <c r="H24" t="n">
-        <v>5.363891521756294</v>
+        <v>5.821791090873328</v>
       </c>
       <c r="I24" t="n">
-        <v>5.821791090873328</v>
+        <v>4.304445717219192</v>
       </c>
       <c r="J24" t="n">
-        <v>4.304445717219192</v>
+        <v>2.737892818099001</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.03824470924414847</v>
+        <v>-1.186011456161797</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.590126071181352</v>
+        <v>1.907966168427958</v>
       </c>
       <c r="M24" t="n">
-        <v>1.517345373654136</v>
+        <v>1.059445804537102</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.450066599310924</v>
+        <v>0.8485203638908558</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8485203638908558</v>
+        <v>3.923904274260797</v>
       </c>
       <c r="P24" t="n">
-        <v>3.923904274260797</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4.519293334902263</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>4.772424638151653</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>3.57828445533985</v>
+      </c>
       <c r="C25" t="n">
-        <v>3.57828445533985</v>
+        <v>3.635433148601614</v>
       </c>
       <c r="D25" t="n">
-        <v>3.635433148601614</v>
+        <v>3.560002561536876</v>
       </c>
       <c r="E25" t="n">
-        <v>3.560002561536876</v>
+        <v>4.799999866442469</v>
       </c>
       <c r="F25" t="n">
-        <v>4.799999866442469</v>
+        <v>2.095293637584836</v>
       </c>
       <c r="G25" t="n">
-        <v>2.095293637584836</v>
+        <v>2.485334926272601</v>
       </c>
       <c r="H25" t="n">
-        <v>2.485334926272601</v>
+        <v>3.149999832218281</v>
       </c>
       <c r="I25" t="n">
-        <v>3.149999832218281</v>
+        <v>3.655328079330345</v>
       </c>
       <c r="J25" t="n">
-        <v>3.655328079330345</v>
+        <v>-0.01828189380297429</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.239997304905593</v>
+        <v>-1.164566717840855</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.05714869326176331</v>
+        <v>1.054706194633445</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.5053282471120641</v>
+        <v>-1.169993153057744</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.3900412886877649</v>
+        <v>2.224699347691189</v>
       </c>
       <c r="O25" t="n">
-        <v>2.224699347691189</v>
+        <v>1.14628482403788</v>
       </c>
       <c r="P25" t="n">
-        <v>1.14628482403788</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-1.298135570068129</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>3.37098417172907</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>管笑啸</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>3.960424644405857</v>
+      </c>
       <c r="C26" t="n">
-        <v>3.960424644405857</v>
+        <v>4.920000001626808</v>
       </c>
       <c r="D26" t="n">
-        <v>4.920000001626808</v>
+        <v>2.965849797817817</v>
       </c>
       <c r="E26" t="n">
-        <v>2.965849797817817</v>
+        <v>3.086998872290138</v>
       </c>
       <c r="F26" t="n">
-        <v>3.086998872290138</v>
+        <v>5.563267565104807</v>
       </c>
       <c r="G26" t="n">
-        <v>5.563267565104807</v>
+        <v>2.846359474928787</v>
       </c>
       <c r="H26" t="n">
-        <v>2.846359474928787</v>
+        <v>5.920685717158305</v>
       </c>
       <c r="I26" t="n">
-        <v>5.920685717158305</v>
+        <v>5.573153650275739</v>
       </c>
       <c r="J26" t="n">
-        <v>5.573153650275739</v>
+        <v>-0.9945748465880397</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.1211490744723211</v>
+        <v>1.83300112933667</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.9595753572209511</v>
+        <v>0.3574181520534978</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3475320668825663</v>
+        <v>-2.726794175346951</v>
       </c>
       <c r="N26" t="n">
-        <v>2.71690809017602</v>
+        <v>3.084212327400449</v>
       </c>
       <c r="O26" t="n">
-        <v>3.084212327400449</v>
+        <v>-2.827575975924709</v>
       </c>
       <c r="P26" t="n">
-        <v>-2.827575975924709</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-1.530949740544823</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>0.2566363514757395</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>4.76000007134711</v>
+      </c>
       <c r="C27" t="n">
-        <v>4.76000007134711</v>
+        <v>2.539999980455825</v>
       </c>
       <c r="D27" t="n">
-        <v>2.539999980455825</v>
+        <v>3.089820240407824</v>
       </c>
       <c r="E27" t="n">
-        <v>3.089820240407824</v>
+        <v>3.195662455607678</v>
       </c>
       <c r="F27" t="n">
-        <v>3.195662455607678</v>
+        <v>2.152758330320317</v>
       </c>
       <c r="G27" t="n">
-        <v>2.152758330320317</v>
+        <v>2.109997931266305</v>
       </c>
       <c r="H27" t="n">
-        <v>2.109997931266305</v>
+        <v>3.238256592395085</v>
       </c>
       <c r="I27" t="n">
-        <v>3.238256592395085</v>
+        <v>2.470000000167293</v>
       </c>
       <c r="J27" t="n">
-        <v>2.470000000167293</v>
+        <v>-1.670179830939286</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.1058422151998539</v>
+        <v>-0.6556624751518534</v>
       </c>
       <c r="L27" t="n">
-        <v>2.220000090891285</v>
+        <v>1.085498262074768</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7682565922277917</v>
+        <v>-0.3600020689009877</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04276039905401197</v>
+        <v>1.445500330975756</v>
       </c>
       <c r="O27" t="n">
-        <v>1.445500330975756</v>
+        <v>-1.014517355787432</v>
       </c>
       <c r="P27" t="n">
-        <v>-1.014517355787432</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-1.60034611291736</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>0.4309829751883227</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>5.047137657866935</v>
+      </c>
       <c r="C28" t="n">
-        <v>5.047137657866935</v>
+        <v>3.85387838266926</v>
       </c>
       <c r="D28" t="n">
-        <v>3.85387838266926</v>
+        <v>3.759276376558387</v>
       </c>
       <c r="E28" t="n">
-        <v>3.759276376558387</v>
+        <v>1.864456480518131</v>
       </c>
       <c r="F28" t="n">
-        <v>1.864456480518131</v>
+        <v>3.58986866312949</v>
       </c>
       <c r="G28" t="n">
-        <v>3.58986866312949</v>
+        <v>4.538450639403192</v>
       </c>
       <c r="H28" t="n">
-        <v>4.538450639403192</v>
+        <v>3.021971816599484</v>
       </c>
       <c r="I28" t="n">
-        <v>3.021971816599484</v>
+        <v>4.218170362358445</v>
       </c>
       <c r="J28" t="n">
-        <v>4.218170362358445</v>
+        <v>-1.287861281308548</v>
       </c>
       <c r="K28" t="n">
-        <v>1.894819896040256</v>
+        <v>1.989421902151129</v>
       </c>
       <c r="L28" t="n">
-        <v>1.193259275197675</v>
+        <v>-0.5678968465300058</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.196198545758961</v>
+        <v>0.3202802770447466</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.9485819762737018</v>
+        <v>-0.8881771235747511</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.8881771235747511</v>
+        <v>-3.277283183459677</v>
       </c>
       <c r="P28" t="n">
-        <v>-3.277283183459677</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.4539440513573219</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>-4.16546030703443</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>2.470504865840597</v>
+      </c>
       <c r="C29" t="n">
-        <v>2.470504865840597</v>
+        <v>2.705434090218008</v>
       </c>
       <c r="D29" t="n">
-        <v>2.705434090218008</v>
+        <v>2.961935286256481</v>
       </c>
       <c r="E29" t="n">
-        <v>2.961935286256481</v>
+        <v>1.904802341495512</v>
       </c>
       <c r="F29" t="n">
-        <v>1.904802341495512</v>
+        <v>2.073427677086837</v>
       </c>
       <c r="G29" t="n">
-        <v>2.073427677086837</v>
+        <v>2.479898604424829</v>
       </c>
       <c r="H29" t="n">
-        <v>2.479898604424829</v>
+        <v>3.765700931826742</v>
       </c>
       <c r="I29" t="n">
-        <v>3.765700931826742</v>
+        <v>2.667444151965514</v>
       </c>
       <c r="J29" t="n">
-        <v>2.667444151965514</v>
+        <v>0.4914304204158837</v>
       </c>
       <c r="K29" t="n">
-        <v>1.057132944760968</v>
+        <v>0.8006317487224957</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.234929224377411</v>
+        <v>1.692273254739906</v>
       </c>
       <c r="M29" t="n">
-        <v>1.098256779861229</v>
+        <v>-0.1875455475406849</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.4064709273379923</v>
+        <v>1.879818802280591</v>
       </c>
       <c r="O29" t="n">
-        <v>1.879818802280591</v>
+        <v>-0.309201328306612</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.309201328306612</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.7967898763376</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>1.570617473973979</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>2.345921647017339</v>
+      </c>
       <c r="C30" t="n">
-        <v>2.345921647017339</v>
+        <v>4.434805394566364</v>
       </c>
       <c r="D30" t="n">
-        <v>4.434805394566364</v>
+        <v>2.303650134826224</v>
       </c>
       <c r="E30" t="n">
-        <v>2.303650134826224</v>
+        <v>5.420000195796967</v>
       </c>
       <c r="F30" t="n">
-        <v>5.420000195796967</v>
+        <v>1.910952319471438</v>
       </c>
       <c r="G30" t="n">
-        <v>1.910952319471438</v>
+        <v>3.000416888662027</v>
       </c>
       <c r="H30" t="n">
-        <v>3.000416888662027</v>
+        <v>4.377122801281891</v>
       </c>
       <c r="I30" t="n">
-        <v>4.377122801281891</v>
+        <v>5.270073338092221</v>
       </c>
       <c r="J30" t="n">
-        <v>5.270073338092221</v>
+        <v>-0.04227151219111525</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.116350060970743</v>
+        <v>-0.9851948012306027</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.088883747549025</v>
+        <v>2.466170481810452</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.8929505368103303</v>
+        <v>-2.269656449430194</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.089464569190589</v>
+        <v>4.735826931240646</v>
       </c>
       <c r="O30" t="n">
-        <v>4.735826931240646</v>
+        <v>0.942923289039487</v>
       </c>
       <c r="P30" t="n">
-        <v>0.942923289039487</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-0.8309522810414596</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>5.678750220280133</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>1.434333090244448</v>
+      </c>
       <c r="C31" t="n">
-        <v>1.434333090244448</v>
+        <v>1.979998851690513</v>
       </c>
       <c r="D31" t="n">
-        <v>1.979998851690513</v>
+        <v>1.65075227982272</v>
       </c>
       <c r="E31" t="n">
-        <v>1.65075227982272</v>
+        <v>4.960000291893541</v>
       </c>
       <c r="F31" t="n">
-        <v>4.960000291893541</v>
+        <v>2.54874696411451</v>
       </c>
       <c r="G31" t="n">
-        <v>2.54874696411451</v>
+        <v>1.999999898496875</v>
       </c>
       <c r="H31" t="n">
-        <v>1.999999898496875</v>
+        <v>1.799052396606834</v>
       </c>
       <c r="I31" t="n">
-        <v>1.799052396606834</v>
+        <v>4.921359051727912</v>
       </c>
       <c r="J31" t="n">
-        <v>4.921359051727912</v>
+        <v>0.2164191895782726</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.309248012070821</v>
+        <v>-2.980001440203028</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.5456657614460654</v>
+        <v>-0.749694567507676</v>
       </c>
       <c r="M31" t="n">
-        <v>-3.122306655121078</v>
+        <v>-2.921359153231037</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5487470656176348</v>
+        <v>2.171664585723361</v>
       </c>
       <c r="O31" t="n">
-        <v>2.171664585723361</v>
+        <v>3.196420629781301</v>
       </c>
       <c r="P31" t="n">
-        <v>3.196420629781301</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-6.434635971363468</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>5.368085215504662</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>1.011512875482143</v>
+      </c>
       <c r="C32" t="n">
-        <v>1.011512875482143</v>
+        <v>4.104036177715924</v>
       </c>
       <c r="D32" t="n">
-        <v>4.104036177715924</v>
+        <v>3.397886978760522</v>
       </c>
       <c r="E32" t="n">
-        <v>3.397886978760522</v>
+        <v>1.81530532259857</v>
       </c>
       <c r="F32" t="n">
-        <v>1.81530532259857</v>
+        <v>1.722793899867336</v>
       </c>
       <c r="G32" t="n">
-        <v>1.722793899867336</v>
+        <v>1.45263268078772</v>
       </c>
       <c r="H32" t="n">
-        <v>1.45263268078772</v>
+        <v>1.706108327496017</v>
       </c>
       <c r="I32" t="n">
-        <v>1.706108327496017</v>
+        <v>1.637161579166584</v>
       </c>
       <c r="J32" t="n">
-        <v>1.637161579166584</v>
+        <v>2.386374103278379</v>
       </c>
       <c r="K32" t="n">
-        <v>1.582581656161951</v>
+        <v>2.288730855117354</v>
       </c>
       <c r="L32" t="n">
-        <v>-3.092523302233782</v>
+        <v>-0.01668557237131818</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06894674832943304</v>
+        <v>-0.1845288983788644</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2701612190796157</v>
+        <v>0.1678433260075463</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1678433260075463</v>
+        <v>0.09764324816102476</v>
       </c>
       <c r="P32" t="n">
-        <v>0.09764324816102476</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4.473890487645551</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>0.265486574168571</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>3.285356527158485</v>
+      </c>
       <c r="C33" t="n">
-        <v>3.285356527158485</v>
+        <v>3.801016676352332</v>
       </c>
       <c r="D33" t="n">
-        <v>3.801016676352332</v>
+        <v>3.293324496110913</v>
       </c>
       <c r="E33" t="n">
-        <v>3.293324496110913</v>
+        <v>2.691640056727423</v>
       </c>
       <c r="F33" t="n">
-        <v>2.691640056727423</v>
+        <v>3.873745424830849</v>
       </c>
       <c r="G33" t="n">
-        <v>3.873745424830849</v>
+        <v>2.784555509614709</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784555509614709</v>
+        <v>1.418761094840635</v>
       </c>
       <c r="I33" t="n">
-        <v>1.418761094840635</v>
+        <v>5.170000601163073</v>
       </c>
       <c r="J33" t="n">
-        <v>5.170000601163073</v>
+        <v>0.007967968952428794</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6016844393834901</v>
+        <v>1.109376619624909</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.5156601491938475</v>
+        <v>-2.454984329990214</v>
       </c>
       <c r="M33" t="n">
-        <v>-3.751239506322438</v>
+        <v>-2.385445091548364</v>
       </c>
       <c r="N33" t="n">
-        <v>1.08918991521614</v>
+        <v>-0.06953923844185006</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.06953923844185006</v>
+        <v>-1.101408650672481</v>
       </c>
       <c r="P33" t="n">
-        <v>-1.101408650672481</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-3.723084832961241</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>-1.17094788911433</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>2.324785751581745</v>
+      </c>
       <c r="C34" t="n">
-        <v>2.324785751581745</v>
+        <v>2.475678443199531</v>
       </c>
       <c r="D34" t="n">
-        <v>2.475678443199531</v>
+        <v>3.145164028516364</v>
       </c>
       <c r="E34" t="n">
-        <v>3.145164028516364</v>
+        <v>2.850544444696764</v>
       </c>
       <c r="F34" t="n">
-        <v>2.850544444696764</v>
+        <v>4.187046102145228</v>
       </c>
       <c r="G34" t="n">
-        <v>4.187046102145228</v>
+        <v>2.714523013917965</v>
       </c>
       <c r="H34" t="n">
-        <v>2.714523013917965</v>
+        <v>5.088665020246845</v>
       </c>
       <c r="I34" t="n">
-        <v>5.088665020246845</v>
+        <v>3.296329355223969</v>
       </c>
       <c r="J34" t="n">
-        <v>3.296329355223969</v>
+        <v>0.8203782769346191</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2946195838195997</v>
+        <v>-0.3748660014972334</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.150892691617786</v>
+        <v>0.901618918101617</v>
       </c>
       <c r="M34" t="n">
-        <v>1.792335665022876</v>
+        <v>-0.5818063413060037</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472523088227263</v>
+        <v>1.483425259407621</v>
       </c>
       <c r="O34" t="n">
-        <v>1.483425259407621</v>
+        <v>1.195244278431852</v>
       </c>
       <c r="P34" t="n">
-        <v>1.195244278431852</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.765324852232999</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>2.678669537839473</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>2.808311162020466</v>
+      </c>
       <c r="C35" t="n">
-        <v>2.808311162020466</v>
+        <v>1.773419099792279</v>
       </c>
       <c r="D35" t="n">
-        <v>1.773419099792279</v>
+        <v>2.304691543918998</v>
       </c>
       <c r="E35" t="n">
-        <v>2.304691543918998</v>
+        <v>2.196080927837834</v>
       </c>
       <c r="F35" t="n">
-        <v>2.196080927837834</v>
+        <v>5.454116457964347</v>
       </c>
       <c r="G35" t="n">
-        <v>5.454116457964347</v>
+        <v>4.454980007199573</v>
       </c>
       <c r="H35" t="n">
-        <v>4.454980007199573</v>
+        <v>2.718992367171504</v>
       </c>
       <c r="I35" t="n">
-        <v>2.718992367171504</v>
+        <v>2.650552859814149</v>
       </c>
       <c r="J35" t="n">
-        <v>2.650552859814149</v>
+        <v>-0.5036196181014674</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1086106160811644</v>
+        <v>-0.422661828045555</v>
       </c>
       <c r="L35" t="n">
-        <v>1.034892062228187</v>
+        <v>-2.735124090792843</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06843950735735538</v>
+        <v>1.804427147385424</v>
       </c>
       <c r="N35" t="n">
-        <v>0.999136450764774</v>
+        <v>-4.539551238178266</v>
       </c>
       <c r="O35" t="n">
-        <v>-4.539551238178266</v>
+        <v>-0.08095779005591197</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.08095779005591197</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-1.856978389554441</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>-4.62050902823418</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>1.513372689652508</v>
+      </c>
       <c r="C36" t="n">
-        <v>1.513372689652508</v>
+        <v>1.983520068799677</v>
       </c>
       <c r="D36" t="n">
-        <v>1.983520068799677</v>
+        <v>3.599962205880925</v>
       </c>
       <c r="E36" t="n">
-        <v>3.599962205880925</v>
+        <v>3.678848106466085</v>
       </c>
       <c r="F36" t="n">
-        <v>3.678848106466085</v>
+        <v>1.084524476337144</v>
       </c>
       <c r="G36" t="n">
-        <v>1.084524476337144</v>
+        <v>2.120000019140524</v>
       </c>
       <c r="H36" t="n">
-        <v>2.120000019140524</v>
+        <v>3.261554190523361</v>
       </c>
       <c r="I36" t="n">
-        <v>3.261554190523361</v>
+        <v>5.383093637499655</v>
       </c>
       <c r="J36" t="n">
-        <v>5.383093637499655</v>
+        <v>2.086589516228417</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.07888590058515943</v>
+        <v>-1.695328037666408</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.4701473791471691</v>
+        <v>2.177029714186216</v>
       </c>
       <c r="M36" t="n">
-        <v>-2.121539446976294</v>
+        <v>-3.263093618359131</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.03547554280338</v>
+        <v>5.440123332545348</v>
       </c>
       <c r="O36" t="n">
-        <v>5.440123332545348</v>
+        <v>3.781917553894826</v>
       </c>
       <c r="P36" t="n">
-        <v>3.781917553894826</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-0.6948024256109053</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>9.222040886440173</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>3.133215492765439</v>
+      </c>
       <c r="C37" t="n">
-        <v>3.133215492765439</v>
+        <v>2.929968031713982</v>
       </c>
       <c r="D37" t="n">
-        <v>2.929968031713982</v>
+        <v>3.309999903840384</v>
       </c>
       <c r="E37" t="n">
-        <v>3.309999903840384</v>
+        <v>1.749988269984073</v>
       </c>
       <c r="F37" t="n">
-        <v>1.749988269984073</v>
+        <v>0.9607467533139346</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9607467533139346</v>
+        <v>2.536516190333812</v>
       </c>
       <c r="H37" t="n">
-        <v>2.536516190333812</v>
+        <v>1.647364718158966</v>
       </c>
       <c r="I37" t="n">
-        <v>1.647364718158966</v>
+        <v>1.904846926782203</v>
       </c>
       <c r="J37" t="n">
-        <v>1.904846926782203</v>
+        <v>0.1767844110749452</v>
       </c>
       <c r="K37" t="n">
-        <v>1.560011633856311</v>
+        <v>1.179979761729909</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2032474610514567</v>
+        <v>0.6866179648450313</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.2574822086232369</v>
+        <v>0.6316692635516097</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.575769437019878</v>
+        <v>0.05494870129342155</v>
       </c>
       <c r="O37" t="n">
-        <v>0.05494870129342155</v>
+        <v>-1.003195350654964</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.003195350654964</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.675051401201495</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>-0.9482466493615417</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>3.480000042341204</v>
+      </c>
       <c r="C38" t="n">
-        <v>3.480000042341204</v>
+        <v>1.530000045021829</v>
       </c>
       <c r="D38" t="n">
-        <v>1.530000045021829</v>
+        <v>1.812396042542681</v>
       </c>
       <c r="E38" t="n">
-        <v>1.812396042542681</v>
+        <v>2.443094675786074</v>
       </c>
       <c r="F38" t="n">
-        <v>2.443094675786074</v>
+        <v>2.170779513176317</v>
       </c>
       <c r="G38" t="n">
-        <v>2.170779513176317</v>
+        <v>2.590000025046894</v>
       </c>
       <c r="H38" t="n">
-        <v>2.590000025046894</v>
+        <v>1.620330962675393</v>
       </c>
       <c r="I38" t="n">
-        <v>1.620330962675393</v>
+        <v>1.612589069084251</v>
       </c>
       <c r="J38" t="n">
-        <v>1.612589069084251</v>
+        <v>-1.667603999798523</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.6306986332433926</v>
+        <v>-0.9130946307642447</v>
       </c>
       <c r="L38" t="n">
-        <v>1.949999997319375</v>
+        <v>-0.5504485505009236</v>
       </c>
       <c r="M38" t="n">
-        <v>0.007741893591142857</v>
+        <v>0.9774109559626436</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.4192205118705772</v>
+        <v>-1.527859506463567</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.527859506463567</v>
+        <v>-0.7545093690342783</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.7545093690342783</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-2.153736225101047</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>-2.282368875497845</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>5.078812368911128</v>
+      </c>
       <c r="C39" t="n">
-        <v>5.078812368911128</v>
+        <v>1.233557361981051</v>
       </c>
       <c r="D39" t="n">
-        <v>1.233557361981051</v>
+        <v>2.135253621089086</v>
       </c>
       <c r="E39" t="n">
-        <v>2.135253621089086</v>
+        <v>2.069999999316934</v>
       </c>
       <c r="F39" t="n">
-        <v>2.069999999316934</v>
+        <v>4.242065355360401</v>
       </c>
       <c r="G39" t="n">
-        <v>4.242065355360401</v>
+        <v>5.92408060471994</v>
       </c>
       <c r="H39" t="n">
-        <v>5.92408060471994</v>
+        <v>4.63488665739776</v>
       </c>
       <c r="I39" t="n">
-        <v>4.63488665739776</v>
+        <v>2.148189642801216</v>
       </c>
       <c r="J39" t="n">
-        <v>2.148189642801216</v>
+        <v>-2.943558747822042</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06525362177215221</v>
+        <v>-0.8364426373358831</v>
       </c>
       <c r="L39" t="n">
-        <v>3.845255006930078</v>
+        <v>0.3928213020373592</v>
       </c>
       <c r="M39" t="n">
-        <v>2.486697014596544</v>
+        <v>3.775890961918724</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.682015249359539</v>
+        <v>-3.383069659881365</v>
       </c>
       <c r="O39" t="n">
-        <v>-3.383069659881365</v>
+        <v>-2.107116110486159</v>
       </c>
       <c r="P39" t="n">
-        <v>-2.107116110486159</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.3887108787981575</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>-5.490185770367524</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>5.024282444907165</v>
+      </c>
       <c r="C40" t="n">
-        <v>5.024282444907165</v>
+        <v>3.564010711168003</v>
       </c>
       <c r="D40" t="n">
-        <v>3.564010711168003</v>
+        <v>3.541736255139126</v>
       </c>
       <c r="E40" t="n">
-        <v>3.541736255139126</v>
+        <v>3.234027268581778</v>
       </c>
       <c r="F40" t="n">
-        <v>3.234027268581778</v>
+        <v>5.228844314818923</v>
       </c>
       <c r="G40" t="n">
-        <v>5.228844314818923</v>
+        <v>2.832984531733444</v>
       </c>
       <c r="H40" t="n">
-        <v>2.832984531733444</v>
+        <v>4.835189042307285</v>
       </c>
       <c r="I40" t="n">
-        <v>4.835189042307285</v>
+        <v>2.933482110543648</v>
       </c>
       <c r="J40" t="n">
-        <v>2.933482110543648</v>
+        <v>-1.482546189768039</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3077089865573481</v>
+        <v>0.3299834425862249</v>
       </c>
       <c r="L40" t="n">
-        <v>1.460271733739162</v>
+        <v>-0.3936552725116389</v>
       </c>
       <c r="M40" t="n">
-        <v>1.901706931763636</v>
+        <v>-0.100497578810204</v>
       </c>
       <c r="N40" t="n">
-        <v>2.395859783085479</v>
+        <v>-0.2931576937014349</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.2931576937014349</v>
+        <v>-1.812529632354263</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.812529632354263</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-1.646715598503657</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>-2.105687326055699</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>2.79150860835851</v>
+      </c>
       <c r="C41" t="n">
-        <v>2.79150860835851</v>
+        <v>2.959417408049862</v>
       </c>
       <c r="D41" t="n">
-        <v>2.959417408049862</v>
+        <v>3.277431682728438</v>
       </c>
       <c r="E41" t="n">
-        <v>3.277431682728438</v>
+        <v>5.982107719412655</v>
       </c>
       <c r="F41" t="n">
-        <v>5.982107719412655</v>
+        <v>2.495009742171212</v>
       </c>
       <c r="G41" t="n">
-        <v>2.495009742171212</v>
+        <v>3.79945353892289</v>
       </c>
       <c r="H41" t="n">
-        <v>3.79945353892289</v>
+        <v>3.290000397653741</v>
       </c>
       <c r="I41" t="n">
-        <v>3.290000397653741</v>
+        <v>4.471239890991871</v>
       </c>
       <c r="J41" t="n">
-        <v>4.471239890991871</v>
+        <v>0.4859230743699277</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.704676036684217</v>
+        <v>-3.022690311362793</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.167908799691352</v>
+        <v>0.794990655482529</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.18123949333813</v>
+        <v>-0.6717863520689811</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.304443796751678</v>
+        <v>1.46677700755151</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46677700755151</v>
+        <v>3.50861338573272</v>
       </c>
       <c r="P41" t="n">
-        <v>3.50861338573272</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-2.413562933579317</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>4.975390393284231</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>1.844413549333274</v>
+      </c>
       <c r="C42" t="n">
-        <v>1.844413549333274</v>
+        <v>1.170286892459991</v>
       </c>
       <c r="D42" t="n">
-        <v>1.170286892459991</v>
+        <v>2.312571687635789</v>
       </c>
       <c r="E42" t="n">
-        <v>2.312571687635789</v>
+        <v>2.862418347847767</v>
       </c>
       <c r="F42" t="n">
-        <v>2.862418347847767</v>
+        <v>1.479068783593422</v>
       </c>
       <c r="G42" t="n">
-        <v>1.479068783593422</v>
+        <v>1.360000012717678</v>
       </c>
       <c r="H42" t="n">
-        <v>1.360000012717678</v>
+        <v>1.562654070393017</v>
       </c>
       <c r="I42" t="n">
-        <v>1.562654070393017</v>
+        <v>1.627388441281562</v>
       </c>
       <c r="J42" t="n">
-        <v>1.627388441281562</v>
+        <v>0.4681581383025153</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.549846660211978</v>
+        <v>-1.692131455387776</v>
       </c>
       <c r="L42" t="n">
-        <v>0.6741266568732829</v>
+        <v>0.08358528679959543</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.06473437088854417</v>
+        <v>-0.2673884285638837</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1190687708757441</v>
+        <v>0.3509737153634793</v>
       </c>
       <c r="O42" t="n">
-        <v>0.3509737153634793</v>
+        <v>2.160289593690291</v>
       </c>
       <c r="P42" t="n">
-        <v>2.160289593690291</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-1.407776458849549</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>2.511263309053771</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>3.524157540613202</v>
+      </c>
       <c r="C43" t="n">
-        <v>3.524157540613202</v>
+        <v>3.180000015557295</v>
       </c>
       <c r="D43" t="n">
-        <v>3.180000015557295</v>
+        <v>5.667448790891227</v>
       </c>
       <c r="E43" t="n">
-        <v>5.667448790891227</v>
+        <v>3.419999998231666</v>
       </c>
       <c r="F43" t="n">
-        <v>3.419999998231666</v>
+        <v>3.017282215192207</v>
       </c>
       <c r="G43" t="n">
-        <v>3.017282215192207</v>
+        <v>3.40892763708259</v>
       </c>
       <c r="H43" t="n">
-        <v>3.40892763708259</v>
+        <v>3.087073464455776</v>
       </c>
       <c r="I43" t="n">
-        <v>3.087073464455776</v>
+        <v>5.189999985216992</v>
       </c>
       <c r="J43" t="n">
-        <v>5.189999985216992</v>
+        <v>2.143291250278024</v>
       </c>
       <c r="K43" t="n">
-        <v>2.247448792659561</v>
+        <v>-0.2399999826743704</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3441575250559072</v>
+        <v>0.06979124926356839</v>
       </c>
       <c r="M43" t="n">
-        <v>-2.102926520761216</v>
+        <v>-1.781072348134402</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.3916454218903822</v>
+        <v>1.850863597397971</v>
       </c>
       <c r="O43" t="n">
-        <v>1.850863597397971</v>
+        <v>2.383291232952394</v>
       </c>
       <c r="P43" t="n">
-        <v>2.383291232952394</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.19201016873282</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>4.234154830350365</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>3.053754257495854</v>
+      </c>
       <c r="C44" t="n">
-        <v>3.053754257495854</v>
+        <v>5.202397515076867</v>
       </c>
       <c r="D44" t="n">
-        <v>5.202397515076867</v>
+        <v>2.150000013661642</v>
       </c>
       <c r="E44" t="n">
-        <v>2.150000013661642</v>
+        <v>2.687526192810295</v>
       </c>
       <c r="F44" t="n">
-        <v>2.687526192810295</v>
+        <v>2.822777393146468</v>
       </c>
       <c r="G44" t="n">
-        <v>2.822777393146468</v>
+        <v>2.468791093817165</v>
       </c>
       <c r="H44" t="n">
-        <v>2.468791093817165</v>
+        <v>2.57593631734858</v>
       </c>
       <c r="I44" t="n">
-        <v>2.57593631734858</v>
+        <v>5.099999992665156</v>
       </c>
       <c r="J44" t="n">
-        <v>5.099999992665156</v>
+        <v>-0.9037542438342121</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.5375261791486525</v>
+        <v>2.514871322266572</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.148643257581012</v>
+        <v>-0.2468410757978878</v>
       </c>
       <c r="M44" t="n">
-        <v>-2.524063675316575</v>
+        <v>-2.631208898847991</v>
       </c>
       <c r="N44" t="n">
-        <v>0.353986299329303</v>
+        <v>2.384367823050102</v>
       </c>
       <c r="O44" t="n">
-        <v>2.384367823050102</v>
+        <v>-3.418625566100784</v>
       </c>
       <c r="P44" t="n">
-        <v>-3.418625566100784</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-1.266932896213519</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>-1.034257743050681</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>4.871356796476709</v>
+      </c>
       <c r="C45" t="n">
-        <v>4.871356796476709</v>
+        <v>4.311790673201981</v>
       </c>
       <c r="D45" t="n">
-        <v>4.311790673201981</v>
+        <v>3.333735250948326</v>
       </c>
       <c r="E45" t="n">
-        <v>3.333735250948326</v>
+        <v>3.850000250072721</v>
       </c>
       <c r="F45" t="n">
-        <v>3.850000250072721</v>
+        <v>4.509442051301061</v>
       </c>
       <c r="G45" t="n">
-        <v>4.509442051301061</v>
+        <v>4.862226261628528</v>
       </c>
       <c r="H45" t="n">
-        <v>4.862226261628528</v>
+        <v>4.359349787128991</v>
       </c>
       <c r="I45" t="n">
-        <v>4.359349787128991</v>
+        <v>3.88662909673751</v>
       </c>
       <c r="J45" t="n">
-        <v>3.88662909673751</v>
+        <v>-1.537621545528383</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.5162649991243944</v>
+        <v>0.4617904231292598</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5595661232747284</v>
+        <v>-0.1500922641720699</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4727206903914816</v>
+        <v>0.9755971648910187</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.3527842103274672</v>
+        <v>-1.125689429063089</v>
       </c>
       <c r="O45" t="n">
-        <v>-1.125689429063089</v>
+        <v>-1.999411968657643</v>
       </c>
       <c r="P45" t="n">
-        <v>-1.999411968657643</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-0.250326221680174</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>-3.125101397720731</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>1.126060745959675</v>
+      </c>
       <c r="C46" t="n">
-        <v>1.126060745959675</v>
+        <v>1.863026205119598</v>
       </c>
       <c r="D46" t="n">
-        <v>1.863026205119598</v>
+        <v>5.491509309537404</v>
       </c>
       <c r="E46" t="n">
-        <v>5.491509309537404</v>
+        <v>1.939999990868544</v>
       </c>
       <c r="F46" t="n">
-        <v>1.939999990868544</v>
+        <v>2.65082111978589</v>
       </c>
       <c r="G46" t="n">
-        <v>2.65082111978589</v>
+        <v>4.127039550914246</v>
       </c>
       <c r="H46" t="n">
-        <v>4.127039550914246</v>
+        <v>3.646754068372001</v>
       </c>
       <c r="I46" t="n">
-        <v>3.646754068372001</v>
+        <v>2.265819800713839</v>
       </c>
       <c r="J46" t="n">
-        <v>2.265819800713839</v>
+        <v>4.365448563577729</v>
       </c>
       <c r="K46" t="n">
-        <v>3.55150931866886</v>
+        <v>-0.07697378574894587</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.7369654591599231</v>
+        <v>0.9959329485861108</v>
       </c>
       <c r="M46" t="n">
-        <v>1.380934267658162</v>
+        <v>1.861219750200407</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.476218431128355</v>
+        <v>-0.8652868016142961</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.8652868016142961</v>
+        <v>4.442422349326675</v>
       </c>
       <c r="P46" t="n">
-        <v>4.442422349326675</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>7.145627476615301</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>3.577135547712379</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>2.559246337025548</v>
+      </c>
       <c r="C47" t="n">
-        <v>2.559246337025548</v>
+        <v>5.287082836197325</v>
       </c>
       <c r="D47" t="n">
-        <v>5.287082836197325</v>
+        <v>4.591970391914336</v>
       </c>
       <c r="E47" t="n">
-        <v>4.591970391914336</v>
+        <v>3.405098853420136</v>
       </c>
       <c r="F47" t="n">
-        <v>3.405098853420136</v>
+        <v>5.899594787993683</v>
       </c>
       <c r="G47" t="n">
-        <v>5.899594787993683</v>
+        <v>5.450000035772271</v>
       </c>
       <c r="H47" t="n">
-        <v>5.450000035772271</v>
+        <v>4.323049540289081</v>
       </c>
       <c r="I47" t="n">
-        <v>4.323049540289081</v>
+        <v>4.599999995592154</v>
       </c>
       <c r="J47" t="n">
-        <v>4.599999995592154</v>
+        <v>2.032724054888789</v>
       </c>
       <c r="K47" t="n">
-        <v>1.1868715384942</v>
+        <v>1.881983982777189</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.727836499171778</v>
+        <v>-1.576545247704602</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.2769504553030728</v>
+        <v>0.8500000401801167</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4495947522214125</v>
+        <v>-2.42654528788472</v>
       </c>
       <c r="O47" t="n">
-        <v>-2.42654528788472</v>
+        <v>0.1507400721115992</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1507400721115992</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3.188162830141493</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>-2.275805215773119</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>4.670001195057357</v>
+      </c>
       <c r="C48" t="n">
-        <v>4.670001195057357</v>
+        <v>3.333592166141905</v>
       </c>
       <c r="D48" t="n">
-        <v>3.333592166141905</v>
+        <v>3.934206710628044</v>
       </c>
       <c r="E48" t="n">
-        <v>3.934206710628044</v>
+        <v>3.608818618145432</v>
       </c>
       <c r="F48" t="n">
-        <v>3.608818618145432</v>
+        <v>4.581331520894444</v>
       </c>
       <c r="G48" t="n">
-        <v>4.581331520894444</v>
+        <v>5.680000066428137</v>
       </c>
       <c r="H48" t="n">
-        <v>5.680000066428137</v>
+        <v>3.320863535250203</v>
       </c>
       <c r="I48" t="n">
-        <v>3.320863535250203</v>
+        <v>5.970000260042174</v>
       </c>
       <c r="J48" t="n">
-        <v>5.970000260042174</v>
+        <v>-0.7357944844293129</v>
       </c>
       <c r="K48" t="n">
-        <v>0.325388092482612</v>
+        <v>-0.275226452003527</v>
       </c>
       <c r="L48" t="n">
-        <v>1.336409028915452</v>
+        <v>-1.260467985644241</v>
       </c>
       <c r="M48" t="n">
-        <v>-2.649136724791972</v>
+        <v>-0.2900001936140368</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.098668545533694</v>
+        <v>-0.9704677920302025</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.9704677920302025</v>
+        <v>-0.460568032425785</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.460568032425785</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-2.561489115691118</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>-1.43103582445599</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>4.846035825348448</v>
+      </c>
       <c r="C49" t="n">
-        <v>4.846035825348448</v>
+        <v>4.49000000144409</v>
       </c>
       <c r="D49" t="n">
-        <v>4.49000000144409</v>
+        <v>5.46085023992172</v>
       </c>
       <c r="E49" t="n">
-        <v>5.46085023992172</v>
+        <v>3.843326922387232</v>
       </c>
       <c r="F49" t="n">
-        <v>3.843326922387232</v>
+        <v>2.922843250195637</v>
       </c>
       <c r="G49" t="n">
-        <v>2.922843250195637</v>
+        <v>2.694407701636571</v>
       </c>
       <c r="H49" t="n">
-        <v>2.694407701636571</v>
+        <v>5.449999859072316</v>
       </c>
       <c r="I49" t="n">
-        <v>5.449999859072316</v>
+        <v>2.158586277143498</v>
       </c>
       <c r="J49" t="n">
-        <v>2.158586277143498</v>
+        <v>0.6148144145732717</v>
       </c>
       <c r="K49" t="n">
-        <v>1.617523317534487</v>
+        <v>0.6466730790568582</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3560358239043575</v>
+        <v>2.527156608876679</v>
       </c>
       <c r="M49" t="n">
-        <v>3.291413581928818</v>
+        <v>0.535821424493073</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2284355485590659</v>
+        <v>1.991335184383606</v>
       </c>
       <c r="O49" t="n">
-        <v>1.991335184383606</v>
+        <v>-0.03185866448358787</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.03185866448358787</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4.324465526999882</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>1.95947651990002</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>2.014308546809673</v>
+      </c>
       <c r="C50" t="n">
-        <v>2.014308546809673</v>
+        <v>3.099988592466306</v>
       </c>
       <c r="D50" t="n">
-        <v>3.099988592466306</v>
+        <v>2.428992520922234</v>
       </c>
       <c r="E50" t="n">
-        <v>2.428992520922234</v>
+        <v>4.020000117514617</v>
       </c>
       <c r="F50" t="n">
-        <v>4.020000117514617</v>
+        <v>4.320704973244082</v>
       </c>
       <c r="G50" t="n">
-        <v>4.320704973244082</v>
+        <v>2.659423336693288</v>
       </c>
       <c r="H50" t="n">
-        <v>2.659423336693288</v>
+        <v>2.153846518451779</v>
       </c>
       <c r="I50" t="n">
-        <v>2.153846518451779</v>
+        <v>3.888650507216883</v>
       </c>
       <c r="J50" t="n">
-        <v>3.888650507216883</v>
+        <v>0.414683974112561</v>
       </c>
       <c r="K50" t="n">
-        <v>-1.591007596592383</v>
+        <v>-0.9200115250483112</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.085680045656633</v>
+        <v>-2.166858454792303</v>
       </c>
       <c r="M50" t="n">
-        <v>-1.734803988765104</v>
+        <v>-1.229227170523596</v>
       </c>
       <c r="N50" t="n">
-        <v>1.661281636550794</v>
+        <v>-0.9376312842687069</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.9376312842687069</v>
+        <v>1.334695499160872</v>
       </c>
       <c r="P50" t="n">
-        <v>1.334695499160872</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>-3.901413176251649</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>0.3970642148921648</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>1.01983995677838</v>
+      </c>
       <c r="C51" t="n">
-        <v>1.01983995677838</v>
+        <v>2.981388710032338</v>
       </c>
       <c r="D51" t="n">
-        <v>2.981388710032338</v>
+        <v>4.892166751123125</v>
       </c>
       <c r="E51" t="n">
-        <v>4.892166751123125</v>
+        <v>4.25945650131295</v>
       </c>
       <c r="F51" t="n">
-        <v>4.25945650131295</v>
+        <v>4.619999980639267</v>
       </c>
       <c r="G51" t="n">
-        <v>4.619999980639267</v>
+        <v>3.33358141043782</v>
       </c>
       <c r="H51" t="n">
-        <v>3.33358141043782</v>
+        <v>2.003466625424708</v>
       </c>
       <c r="I51" t="n">
-        <v>2.003466625424708</v>
+        <v>4.613380562312072</v>
       </c>
       <c r="J51" t="n">
-        <v>4.613380562312072</v>
+        <v>3.872326794344745</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6327102498101755</v>
+        <v>-1.278067791280611</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.961548753253958</v>
+        <v>-2.616533355214559</v>
       </c>
       <c r="M51" t="n">
-        <v>-2.609913936887364</v>
+        <v>-1.279799151874252</v>
       </c>
       <c r="N51" t="n">
-        <v>1.286418570201446</v>
+        <v>-1.336734203340307</v>
       </c>
       <c r="O51" t="n">
-        <v>-1.336734203340307</v>
+        <v>5.150394585625357</v>
       </c>
       <c r="P51" t="n">
-        <v>5.150394585625357</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>-1.302073504024676</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>3.813660382285049</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
